--- a/biology/Médecine/Acide_gadotérique/Acide_gadotérique.xlsx
+++ b/biology/Médecine/Acide_gadotérique/Acide_gadotérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_gadot%C3%A9rique</t>
+          <t>Acide_gadotérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'acide gadotérique, commercialisé sous le nom de Dotarem entre autres, est un agent de contraste pour l'IRM à base de gadolinium (GBCA) macrocyclique. Il se compose d'un ion gadolinium (Gd 3+) chélaté par l'acide organique DOTA, administré sous forme de sel de méglumine (gadoterate meglumine)[1]. Le gadolinium étant paramagnétique, il développe un moment magnétique lorsqu'il est soumis à un champ magnétique en IRM, et se liant à une molécule d'eau réduit le temps de relaxation T1 (et dans une certaine mesure T2 &amp; T2*) de ses protons [2], augmentant l'intensité du signal (luminosité)[3].
+L'acide gadotérique, commercialisé sous le nom de Dotarem entre autres, est un agent de contraste pour l'IRM à base de gadolinium (GBCA) macrocyclique. Il se compose d'un ion gadolinium (Gd 3+) chélaté par l'acide organique DOTA, administré sous forme de sel de méglumine (gadoterate meglumine). Le gadolinium étant paramagnétique, il développe un moment magnétique lorsqu'il est soumis à un champ magnétique en IRM, et se liant à une molécule d'eau réduit le temps de relaxation T1 (et dans une certaine mesure T2 &amp; T2*) de ses protons , augmentant l'intensité du signal (luminosité).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acide_gadot%C3%A9rique</t>
+          <t>Acide_gadotérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est utilisé entre autres pour l'imagerie des vaisseaux sanguins — angiographie pour visualiser une vascularisation anormale (ex. : sténose) — et des tissus — perméabilité de la barrière hémato-encéphalique (ex. : lésion intracrânienne) — en particulier en IRM cérébrale et de la colonne vertébrale chez les patients adultes et pédiatriques (plus de 2 ans)[3]. Il est administré par voie intraveineuse en bolus, manuellement ou par injection assistée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est utilisé entre autres pour l'imagerie des vaisseaux sanguins — angiographie pour visualiser une vascularisation anormale (ex. : sténose) — et des tissus — perméabilité de la barrière hémato-encéphalique (ex. : lésion intracrânienne) — en particulier en IRM cérébrale et de la colonne vertébrale chez les patients adultes et pédiatriques (plus de 2 ans). Il est administré par voie intraveineuse en bolus, manuellement ou par injection assistée.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acide_gadot%C3%A9rique</t>
+          <t>Acide_gadotérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est retenu dans le cerveau à un niveau détectable dès une injection de dose standard (0,1 mmol/kg)[4], en moindre quantité que d'autres GBCAs. Des études in vitro l'ont trouvées significativement moins neurotoxique que les agents linéaires testés[5].
-Dans une étude datant de 2020, Clariscan était retenu davantage dans le cerveau, cervelet, rein et foie de rats que ceux injectés Dotarem, et n'était donc pas bioéquivalent[6]. 
-Un cas de fibrose néphrogénique systémique (ou fibrose induite par le gadolinium) a été reporté chez une personne insuffisante rénale chronique de stade 3[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est retenu dans le cerveau à un niveau détectable dès une injection de dose standard (0,1 mmol/kg), en moindre quantité que d'autres GBCAs. Des études in vitro l'ont trouvées significativement moins neurotoxique que les agents linéaires testés.
+Dans une étude datant de 2020, Clariscan était retenu davantage dans le cerveau, cervelet, rein et foie de rats que ceux injectés Dotarem, et n'était donc pas bioéquivalent. 
+Un cas de fibrose néphrogénique systémique (ou fibrose induite par le gadolinium) a été reporté chez une personne insuffisante rénale chronique de stade 3.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acide_gadot%C3%A9rique</t>
+          <t>Acide_gadotérique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Disponibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dotarem est introduit par Guerbet en 1989[8], et approuvé dans ~ 70 pays en 2013[9],[10] 
-GE Healthcare lance un générique sous le nom de Clariscan en Europe en 2017[11], à la suite de la suspension de son autre GBCA (et des autres agents linéaires) Omniscan par l'AEM[12]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dotarem est introduit par Guerbet en 1989, et approuvé dans ~ 70 pays en 2013, 
+GE Healthcare lance un générique sous le nom de Clariscan en Europe en 2017, à la suite de la suspension de son autre GBCA (et des autres agents linéaires) Omniscan par l'AEM. 
 </t>
         </is>
       </c>
